--- a/webcentral/doc/01_data/02_tool_over/test_data/test_data_testing_update_wufi.xlsx
+++ b/webcentral/doc/01_data/02_tool_over/test_data/test_data_testing_update_wufi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="German" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">resources</t>
   </si>
   <si>
-    <t xml:space="preserve">shortDescription</t>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve">applicationArea</t>
@@ -494,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -675,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
